--- a/Data/Products_Shopee_Result.xlsx
+++ b/Data/Products_Shopee_Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e110b5800b3f798d/Documents/UiPath/AN6817-TeamProject/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Documents\UiPath\group project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_82D82FFDC8822414A619B36670FF500E479E4F8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22754917-2A35-4891-A926-FE0AE3B786B2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E15DBB-2826-4EDB-A700-C54DEE94290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="3750" windowWidth="19200" windowHeight="11710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1250" yWindow="1050" windowWidth="13700" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FinalResult" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +103,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{570F1A2C-C941-42EC-8DE9-034CB6158315}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>

--- a/Data/Products_Shopee_Result.xlsx
+++ b/Data/Products_Shopee_Result.xlsx
@@ -1,120 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Documents\UiPath\group project\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E15DBB-2826-4EDB-A700-C54DEE94290D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1250" yWindow="1050" windowWidth="13700" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="FinalResult" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="FinalResult" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
-  <si>
-    <t>itemName</t>
-  </si>
-  <si>
-    <t>avgPrice</t>
-  </si>
-  <si>
-    <t>avgSold</t>
-  </si>
-  <si>
-    <t>mostFrom</t>
-  </si>
-  <si>
-    <t>shoes-for-men</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>shoes-for-women</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>shirts-for-men</t>
-  </si>
-  <si>
-    <t>Mainland China</t>
-  </si>
-  <si>
-    <t>dress-for-women</t>
-  </si>
-  <si>
-    <t>bag-for-women</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>itemName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>avgPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>avgSold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mostFrom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shoes-for-men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indonesia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shoes-for-women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mainland China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shirts-for-men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dress-for-women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bag-for-women</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{570F1A2C-C941-42EC-8DE9-034CB6158315}"/>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,107 +393,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.36328125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>12.234285714285701</v>
-      </c>
-      <c r="C2">
-        <v>391.8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>11.167142857142901</v>
-      </c>
-      <c r="C3">
-        <v>445.357142857143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>8.5574999999999992</v>
-      </c>
-      <c r="C4">
-        <v>956.375</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>13.545</v>
-      </c>
-      <c r="C5">
-        <v>484.944444444444</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>8.41357142857143</v>
-      </c>
-      <c r="C6">
-        <v>764.57142857142901</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D6"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0">
+        <x:v>12.5692857142857</x:v>
+      </x:c>
+      <x:c r="C2" s="0">
+        <x:v>630.892857142857</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B3" s="0">
+        <x:v>12.2653846153846</x:v>
+      </x:c>
+      <x:c r="C3" s="0">
+        <x:v>511.923076923077</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0">
+        <x:v>8.57923076923077</x:v>
+      </x:c>
+      <x:c r="C4" s="0">
+        <x:v>1179.23076923077</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" s="0">
+        <x:v>9.166875</x:v>
+      </x:c>
+      <x:c r="C5" s="0">
+        <x:v>301.5625</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0">
+        <x:v>11.2193333333333</x:v>
+      </x:c>
+      <x:c r="C6" s="0">
+        <x:v>1139.6</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Products_Shopee_Result.xlsx
+++ b/Data/Products_Shopee_Result.xlsx
@@ -31,19 +31,19 @@
     <x:t>shoes-for-men</x:t>
   </x:si>
   <x:si>
+    <x:t>Selangor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shoes-for-women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shirts-for-men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dress-for-women</x:t>
+  </x:si>
+  <x:si>
     <x:t>Indonesia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shoes-for-women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mainland China</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shirts-for-men</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dress-for-women</x:t>
   </x:si>
   <x:si>
     <x:t>bag-for-women</x:t>
@@ -422,10 +422,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>12.5692857142857</x:v>
+        <x:v>33.6269767441861</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>630.892857142857</x:v>
+        <x:v>32650.7209302326</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>5</x:v>
@@ -436,41 +436,41 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>12.2653846153846</x:v>
+        <x:v>19.8862790697674</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>511.923076923077</x:v>
+        <x:v>46159.1860465116</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>8.57923076923077</x:v>
+        <x:v>15.7218181818182</x:v>
       </x:c>
       <x:c r="C4" s="0">
-        <x:v>1179.23076923077</x:v>
+        <x:v>39806.4848484848</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0">
+        <x:v>22.6553846153846</x:v>
+      </x:c>
+      <x:c r="C5" s="0">
+        <x:v>17571.1923076923</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B5" s="0">
-        <x:v>9.166875</x:v>
-      </x:c>
-      <x:c r="C5" s="0">
-        <x:v>301.5625</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -478,13 +478,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>11.2193333333333</x:v>
+        <x:v>16.8791666666667</x:v>
       </x:c>
       <x:c r="C6" s="0">
-        <x:v>1139.6</x:v>
+        <x:v>31939.1458333333</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Products_Shopee_Result.xlsx
+++ b/Data/Products_Shopee_Result.xlsx
@@ -43,7 +43,7 @@
     <x:t>dress-for-women</x:t>
   </x:si>
   <x:si>
-    <x:t>Indonesia</x:t>
+    <x:t>Mainland China</x:t>
   </x:si>
   <x:si>
     <x:t>bag-for-women</x:t>
@@ -422,10 +422,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B2" s="0">
-        <x:v>33.6269767441861</x:v>
+        <x:v>27.7769387755102</x:v>
       </x:c>
       <x:c r="C2" s="0">
-        <x:v>32650.7209302326</x:v>
+        <x:v>33773.8163265306</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>5</x:v>
@@ -436,10 +436,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0">
-        <x:v>19.8862790697674</x:v>
+        <x:v>20.53625</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>46159.1860465116</x:v>
+        <x:v>50400.0892857143</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>5</x:v>
@@ -450,10 +450,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0">
-        <x:v>15.7218181818182</x:v>
+        <x:v>14.9858823529412</x:v>
       </x:c>
       <x:c r="C4" s="0">
-        <x:v>39806.4848484848</x:v>
+        <x:v>38534.7352941177</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>5</x:v>
@@ -464,10 +464,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0">
-        <x:v>22.6553846153846</x:v>
+        <x:v>23.2623076923077</x:v>
       </x:c>
       <x:c r="C5" s="0">
-        <x:v>17571.1923076923</x:v>
+        <x:v>13229.7692307692</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>9</x:v>
@@ -478,10 +478,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:v>16.8791666666667</x:v>
+        <x:v>17.140625</x:v>
       </x:c>
       <x:c r="C6" s="0">
-        <x:v>31939.1458333333</x:v>
+        <x:v>30043.3958333333</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>5</x:v>
